--- a/biology/Microbiologie/Ophrydiidae/Ophrydiidae.xlsx
+++ b/biology/Microbiologie/Ophrydiidae/Ophrydiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ophrydiidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Ophrydium, dérivé du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », et de la désinence latine ium, « relatif à ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ophrydiidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm). Ils sont en forme de bouteille, de vase ou de fuseau, avec, souvent, une extrémité buccale longue et très contractile, en forme de col. Leur zooïdes sont solitaires (genre Gerda) ou forment des colonies gélatineuses, atteignant souvent 15 cm de diamètre. Les zooïdes individuels prennent la couleur verte des zoochlorelles endosymbiotiques. Leur tige est atypique à scopule (brosse formée de cils) produisant de longues fibres pédonculaires. Leur région orale est souvent rétractable, encerclant le pôle apical comme péristome, bordée d'une collerette plus ou moins proéminente ; la ciliature buccale s'enroule dans le sens inverse des aiguilles d'une montre autour du bord du péristome ; cette ciliature provient d'une cavité buccale, l'infundibulum, à l'extrémité duquel se trouve le cytostome. Leur macronoyau est allongé. Pas de micronoyau n'a été observé. La vacuole contractile est précédée d'un long canal la reliant à l'infundibulum. Le cytoprocte n'a pas été observé. Ils sont susceptibles de se transformer en kystes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ophrydiidae ont une taille moyenne (80 à 200 μm) à grande (&gt; 200 μm). Ils sont en forme de bouteille, de vase ou de fuseau, avec, souvent, une extrémité buccale longue et très contractile, en forme de col. Leur zooïdes sont solitaires (genre Gerda) ou forment des colonies gélatineuses, atteignant souvent 15 cm de diamètre. Les zooïdes individuels prennent la couleur verte des zoochlorelles endosymbiotiques. Leur tige est atypique à scopule (brosse formée de cils) produisant de longues fibres pédonculaires. Leur région orale est souvent rétractable, encerclant le pôle apical comme péristome, bordée d'une collerette plus ou moins proéminente ; la ciliature buccale s'enroule dans le sens inverse des aiguilles d'une montre autour du bord du péristome ; cette ciliature provient d'une cavité buccale, l'infundibulum, à l'extrémité duquel se trouve le cytostome. Leur macronoyau est allongé. Pas de micronoyau n'a été observé. La vacuole contractile est précédée d'un long canal la reliant à l'infundibulum. Le cytoprocte n'a pas été observé. Ils sont susceptibles de se transformer en kystes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ophrydiidae vivent exclusivement en eau douce[1]. Ils ont surtout été observés dans l'hémisphère nord[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ophrydiidae vivent exclusivement en eau douce. Ils ont surtout été observés dans l'hémisphère nord.
 </t>
         </is>
       </c>
@@ -604,15 +622,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 janvier 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 janvier 2024) :
 Gerda Claparede &amp; Lachmann, 1858
 Ophionella Kent, 1881
 Genres synonymes : Gerda  Claparede &amp; Lachmann, 1858, Ophryidium Kahl, 1935
 Ophrydium Bory de St.Vincent, 1826 genre type
 Espèce type : Ophrydium versatile Bory de St.Vincent, 1826
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Gerda Claparede &amp; Lachmann, 1858
 Ophrydium Bory de St.Vincent, 1826</t>
         </is>
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Ophrydiidae Ehrenberg, 1838[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Ophrydiidae Ehrenberg, 1838.
 </t>
         </is>
       </c>
